--- a/Analysis/Output/cpi_series.xlsx
+++ b/Analysis/Output/cpi_series.xlsx
@@ -1605,7 +1605,7 @@
         <v>44927</v>
       </c>
       <c r="D90" s="1">
-        <v>5.5899529457092285</v>
+        <v>5.8047618865966797</v>
       </c>
       <c r="E90" s="1">
         <v>999</v>
